--- a/data/outputs/OR/40.xlsx
+++ b/data/outputs/OR/40.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ49"/>
+  <dimension ref="A1:BR49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -941,6 +946,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1158,6 +1164,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1359,6 +1366,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1572,6 +1580,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1797,6 +1806,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2026,6 +2036,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2255,6 +2266,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2472,6 +2484,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2677,6 +2690,11 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr">
+        <is>
+          <t>57499829</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2898,6 +2916,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3111,6 +3130,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3336,6 +3356,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3549,6 +3570,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3774,6 +3796,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4003,6 +4026,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4200,6 +4224,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4405,6 +4430,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4622,6 +4648,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4835,6 +4862,11 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr">
+        <is>
+          <t>1500533</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5064,6 +5096,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5281,6 +5314,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5490,6 +5524,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5699,6 +5734,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5924,6 +5960,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6145,6 +6182,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6350,6 +6388,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6563,6 +6602,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6792,6 +6832,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7005,6 +7046,11 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr">
+        <is>
+          <t>55455150</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7218,6 +7264,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7443,6 +7490,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7656,6 +7704,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7869,6 +7918,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8086,6 +8136,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8295,6 +8346,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8508,6 +8560,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8721,6 +8774,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8930,6 +8984,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9135,6 +9190,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9344,6 +9400,11 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr">
+        <is>
+          <t>3907593</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9557,6 +9618,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9778,6 +9840,11 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr">
+        <is>
+          <t>7528404</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9995,6 +10062,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10192,6 +10260,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10421,6 +10490,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10618,6 +10688,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10827,6 +10898,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11032,6 +11104,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
